--- a/NUTS_2_populations_by_european_cities.xlsx
+++ b/NUTS_2_populations_by_european_cities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\interlude-one\posts\2023-02-01-map-matching\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\European-population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D86FA50-6140-4219-99B6-96309C1696EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4006E4-9CDE-45F9-B8F7-E69FBDE79468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -572,19 +572,19 @@
     <t>Year</t>
   </si>
   <si>
-    <t>NUS 2 Code harmonized with Roses Wolf Database. Some regions have a + to aggregate up. Three do not (Two in Germany, One in Austria)</t>
-  </si>
-  <si>
     <t>Number of cities in NUTS 2 region</t>
   </si>
   <si>
     <t>Population of NUTS 2 region. The source document had population listed in '000. It is now a raw number.</t>
   </si>
+  <si>
+    <t>NUTS 2 Code harmonized with Roses Wolf Database. Some regions have a "+" to aggregate up two regions e.g. "UKD + UKM". Three do not (Two in Germany, One in Austria)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1427,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
